--- a/Ti-2.xlsx
+++ b/Ti-2.xlsx
@@ -5,18 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\1msspR1\增强\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\增强\上传\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6F137B-FF74-4DF6-BC2B-332E33E9CA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFF5761-90E2-4A87-B761-958E9E692F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TI-1" sheetId="1" r:id="rId1"/>
     <sheet name="TI17" sheetId="2" r:id="rId2"/>
     <sheet name="TI-2" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TI-1'!$A$1:$K$244</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TI-2'!$A$1:$K$146</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -464,10 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="I251" sqref="I251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +522,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -581,7 +586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -613,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -645,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -677,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -709,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -741,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -805,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -837,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -869,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -997,7 +1002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1061,7 +1066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1093,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1125,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1157,7 +1162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1189,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1221,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1253,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1317,7 +1322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1349,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1381,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1413,7 +1418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1445,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1477,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1509,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1541,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1573,7 +1578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1605,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1669,7 +1674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1701,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1765,7 +1770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1797,7 +1802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1861,7 +1866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1893,7 +1898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2085,7 +2090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2117,7 +2122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2149,7 +2154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2181,7 +2186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2213,7 +2218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2245,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2277,7 +2282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2341,7 +2346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2405,7 +2410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2437,7 +2442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2597,7 +2602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2661,7 +2666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2693,7 +2698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2757,7 +2762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2789,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2853,7 +2858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2885,7 +2890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2917,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2949,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2981,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3013,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3045,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3077,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3109,7 +3114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3141,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3173,7 +3178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3205,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3237,7 +3242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3301,7 +3306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3333,7 +3338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3397,7 +3402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3429,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3461,7 +3466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3493,7 +3498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3525,7 +3530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3557,7 +3562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3589,7 +3594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3621,7 +3626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3653,7 +3658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3717,7 +3722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3749,7 +3754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3813,7 +3818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3877,7 +3882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3909,7 +3914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3941,7 +3946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4005,7 +4010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4037,7 +4042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4101,7 +4106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4133,7 +4138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4197,7 +4202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4229,7 +4234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4261,7 +4266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4293,7 +4298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4325,7 +4330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4357,7 +4362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4389,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4421,7 +4426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4453,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4485,7 +4490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4517,7 +4522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4549,7 +4554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4613,7 +4618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4709,7 +4714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4741,7 +4746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4773,7 +4778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4869,7 +4874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4901,7 +4906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4933,7 +4938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4965,7 +4970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4997,7 +5002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5029,7 +5034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5061,7 +5066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5093,7 +5098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5125,7 +5130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5157,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5189,7 +5194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5221,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5285,7 +5290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5317,7 +5322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5349,7 +5354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5381,7 +5386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5413,7 +5418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5445,7 +5450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5477,7 +5482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5541,7 +5546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5573,7 +5578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5605,7 +5610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5637,7 +5642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5669,7 +5674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5765,7 +5770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5861,7 +5866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5893,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5925,7 +5930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5989,7 +5994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6021,7 +6026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6085,7 +6090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6117,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6149,7 +6154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6181,7 +6186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6213,7 +6218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6277,7 +6282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -6309,7 +6314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -6341,7 +6346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -6373,7 +6378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -6469,7 +6474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -6501,7 +6506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -6565,7 +6570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -6629,7 +6634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6661,7 +6666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6693,7 +6698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6789,7 +6794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6821,7 +6826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6885,7 +6890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -6917,7 +6922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -6969,7 +6974,7 @@
         <v>1197000000</v>
       </c>
       <c r="G203">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H203">
         <v>60</v>
@@ -7013,7 +7018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -7045,7 +7050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -7077,7 +7082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -7109,7 +7114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -7141,7 +7146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -7205,7 +7210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -7237,7 +7242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -7269,7 +7274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -7301,7 +7306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -7365,7 +7370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -7397,7 +7402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -7429,7 +7434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -7461,7 +7466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -7557,7 +7562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -7589,7 +7594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -7621,7 +7626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -7653,7 +7658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -7685,7 +7690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -7717,7 +7722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -7749,7 +7754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -7781,7 +7786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -7813,7 +7818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -7845,7 +7850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -7877,7 +7882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -7909,7 +7914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -7941,7 +7946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -7973,7 +7978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -8005,7 +8010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -8037,7 +8042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -8069,7 +8074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -8101,7 +8106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -8133,7 +8138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -8294,6 +8299,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K244" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="greaterThanOrEqual" val="1000000000"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8303,7 +8315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761BDAC2-2D79-4CE5-B1AF-A6CCFF9496F1}">
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
@@ -12680,8 +12692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF32E76-63F6-4DE0-B3DA-A405D917240C}">
   <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17221,7 +17233,7 @@
         <v>1197000000</v>
       </c>
       <c r="G130">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H130">
         <v>60</v>
@@ -17233,7 +17245,7 @@
         <v>3</v>
       </c>
       <c r="K130">
-        <v>225.08822704599817</v>
+        <v>3343.9018857408237</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
